--- a/source_data/uploaders/Official court transcripts_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Official court transcripts_hierarchy_aspace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89514BF-F4CE-264E-AD1E-513346A9E7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E022D63-7061-A343-900E-144297D79C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,7 +1726,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>box</t>
+    <t>Box</t>
   </si>
   <si>
     <t>https://purl.stanford.edu/jp079th9081</t>
@@ -13639,7 +13639,7 @@
   <dimension ref="A1:HE745"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/source_data/uploaders/Official court transcripts_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Official court transcripts_hierarchy_aspace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marloelilongley/Projects/vt-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E022D63-7061-A343-900E-144297D79C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD4096-ABCA-B849-829B-4167CD661B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
